--- a/data/trans_dic/P29_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.56595379831105</v>
+        <v>0.5669310246804522</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.624494186435112</v>
+        <v>0.6202666594883719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6266018235847611</v>
+        <v>0.6298667052962555</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6284956807212028</v>
+        <v>0.6275524515150205</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.361187338725781</v>
+        <v>0.3643957376352274</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4134472920992743</v>
+        <v>0.4057325017729249</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.397329667469327</v>
+        <v>0.3930470095752889</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4476563808303708</v>
+        <v>0.4430911811237806</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.498947128902929</v>
+        <v>0.49600993543558</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.552029903558074</v>
+        <v>0.5492644092925333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5369856005704197</v>
+        <v>0.5369006554335706</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5559300500294846</v>
+        <v>0.5553648763460479</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6573286185470227</v>
+        <v>0.6561805694967211</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7183975779781323</v>
+        <v>0.7154055514203199</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7211924739360983</v>
+        <v>0.7244336774416105</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7119626081356014</v>
+        <v>0.7129065158022245</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4774210619238909</v>
+        <v>0.4737576401941962</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5302471764787183</v>
+        <v>0.5297019747927278</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5070387736479881</v>
+        <v>0.5010768189716449</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.525208786522123</v>
+        <v>0.5252008931359332</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5726856321079242</v>
+        <v>0.5671935981585038</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6248879301414566</v>
+        <v>0.6246565883472707</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6096128817093567</v>
+        <v>0.6102745266744952</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6172958791228589</v>
+        <v>0.6130959352219499</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6335993028567849</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5695968027887596</v>
+        <v>0.5695968027887598</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4137575389569506</v>
@@ -833,7 +833,7 @@
         <v>0.5742917735854012</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5357833806211899</v>
+        <v>0.5357833806211898</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5565508319826418</v>
+        <v>0.5559176496154677</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5575455002513291</v>
+        <v>0.5516216169915212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5788613891050776</v>
+        <v>0.5833812514347222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5210750872328387</v>
+        <v>0.5188397873756128</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3610917348182665</v>
+        <v>0.3596596334666421</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3646593103984443</v>
+        <v>0.3599491996441143</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4663091182681637</v>
+        <v>0.4612596750516707</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4578608461485728</v>
+        <v>0.4554979156875977</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4724542978522603</v>
+        <v>0.4734838540941866</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.48807878024585</v>
+        <v>0.4830846981105696</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.535724998925408</v>
+        <v>0.5373137644648749</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5019838972389725</v>
+        <v>0.5022512553713261</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6650259238281329</v>
+        <v>0.6604949632292697</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6619096114223362</v>
+        <v>0.6591046105233127</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6825832267802703</v>
+        <v>0.6857977255062286</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6179943673000758</v>
+        <v>0.620858396370622</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4660162594627895</v>
+        <v>0.4642578721496844</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.477603125996955</v>
+        <v>0.4785293943731957</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5681992965801558</v>
+        <v>0.5665464776898095</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5432278280079791</v>
+        <v>0.5382959745767411</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5462571181531076</v>
+        <v>0.5443978158095788</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5653730196758067</v>
+        <v>0.5630867712848413</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6080046925415648</v>
+        <v>0.6140659619499061</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.567653758704446</v>
+        <v>0.5660882310010094</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6423751249483393</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5810090520878669</v>
+        <v>0.5810090520878668</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3681800369051842</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5778122936064555</v>
+        <v>0.580901711248717</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5743177604639889</v>
+        <v>0.5763869450400909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5962840271098206</v>
+        <v>0.5989999023585768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5376829936296145</v>
+        <v>0.5331123132002618</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3048509022786787</v>
+        <v>0.297876586690359</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2487606665504523</v>
+        <v>0.250339587370377</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2733260092525666</v>
+        <v>0.2737520540324693</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3137336700660205</v>
+        <v>0.3139680526808741</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5273605286258152</v>
+        <v>0.5292395306109734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.492846136265733</v>
+        <v>0.4896284587517888</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.532902098672442</v>
+        <v>0.530461028774133</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4826624350088508</v>
+        <v>0.4842167953523597</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6653830118854037</v>
+        <v>0.6640336316801323</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6533549904799615</v>
+        <v>0.6570364517504117</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6834758654070335</v>
+        <v>0.6851484968501043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6293007234478221</v>
+        <v>0.6242861217801349</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4468028769278738</v>
+        <v>0.4467137403394617</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3629957588743822</v>
+        <v>0.3604407897729681</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4274057511392013</v>
+        <v>0.4274655723215362</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4340040094999479</v>
+        <v>0.4308491549350897</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5987924376050698</v>
+        <v>0.6031514941119689</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5583489466405165</v>
+        <v>0.5579684122124079</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6116692332790229</v>
+        <v>0.6125942506942746</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5557800396014062</v>
+        <v>0.5597658150526776</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5126147456674991</v>
+        <v>0.5105625573619672</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5431357587535631</v>
+        <v>0.5422817441842313</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5481605098860494</v>
+        <v>0.5456341910868704</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5399832969173453</v>
+        <v>0.5410549784484525</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2365262831993467</v>
+        <v>0.2375047995371954</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2698710962763256</v>
+        <v>0.2696572448587284</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3304448548433002</v>
+        <v>0.3292170397482077</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3445335829906381</v>
+        <v>0.3417515713014145</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4204009784654815</v>
+        <v>0.4176697080756095</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4410509180236852</v>
+        <v>0.4421201052818998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4620883957690806</v>
+        <v>0.4629370661795175</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4640344599292167</v>
+        <v>0.4630870526155231</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5708176412987892</v>
+        <v>0.5674797592743144</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6050909132767871</v>
+        <v>0.6021773676030333</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6053874990483266</v>
+        <v>0.601724447871552</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6041180579066351</v>
+        <v>0.6048539508856425</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3049082517520852</v>
+        <v>0.3019158662790442</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3356988175086094</v>
+        <v>0.3398293449462181</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3985869271641498</v>
+        <v>0.3977582427066837</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.401444679691748</v>
+        <v>0.4028389588992339</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4638901397516142</v>
+        <v>0.4674511252268593</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4872541774920907</v>
+        <v>0.4886212492666818</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5068754307948992</v>
+        <v>0.5077882359631051</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5080548397068303</v>
+        <v>0.508083120483428</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3739941849200858</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3796227482857487</v>
+        <v>0.3796227482857488</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5602967432482925</v>
+        <v>0.565358282251179</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5485220357242891</v>
+        <v>0.5508335565240705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4723289709324953</v>
+        <v>0.4656974189523205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4787622795925653</v>
+        <v>0.4742996271487996</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2118912984627632</v>
+        <v>0.2127107361010074</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2115241939400146</v>
+        <v>0.2145253180129309</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2268043050426311</v>
+        <v>0.2290524937410128</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2566645653500028</v>
+        <v>0.2539743885281033</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3550562227992361</v>
+        <v>0.356171213545554</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3570590663424245</v>
+        <v>0.3571582796951427</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3463678390342604</v>
+        <v>0.3479219821228716</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3531224313482053</v>
+        <v>0.356513825301013</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6660587257948423</v>
+        <v>0.6735736088266002</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6334681367895918</v>
+        <v>0.6386008668955013</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5497751862401045</v>
+        <v>0.5500038716135809</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5679585118932151</v>
+        <v>0.5706484494354614</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2844178277854703</v>
+        <v>0.2865773961959877</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2798782448801259</v>
+        <v>0.2775901810643465</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2903655854617184</v>
+        <v>0.2924407921827754</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.309889473570858</v>
+        <v>0.3046415554367656</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4245433412562916</v>
+        <v>0.4246363001362963</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4124426294653211</v>
+        <v>0.4129468039835797</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4006543992462672</v>
+        <v>0.3995759039661682</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4059530538954449</v>
+        <v>0.4074305185083538</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.5664315866575194</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4334147390060616</v>
+        <v>0.4334147390060615</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.1746533398396438</v>
@@ -1365,7 +1365,7 @@
         <v>0.23659350910184</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2422118996577475</v>
+        <v>0.2422118996577474</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2311704054042155</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4097720287523546</v>
+        <v>0.4104515996363097</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4620522531187817</v>
+        <v>0.4619435034777562</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.50339951159882</v>
+        <v>0.507320976501909</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3393477801173401</v>
+        <v>0.3291032399752148</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1547953656196717</v>
+        <v>0.152073509472277</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2129251586699778</v>
+        <v>0.2126767304686367</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2109747955387957</v>
+        <v>0.2076216148045948</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2130150437547285</v>
+        <v>0.2101691629926479</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2112528205594719</v>
+        <v>0.2097876994352483</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2703221137982095</v>
+        <v>0.2701486826156242</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2809806709909849</v>
+        <v>0.2812215243508934</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2541503352943016</v>
+        <v>0.25281203310369</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5272150660786039</v>
+        <v>0.5245960671607975</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5844038057513515</v>
+        <v>0.5808273367597752</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.624236705465369</v>
+        <v>0.6289928226621156</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5379919193648416</v>
+        <v>0.5275264238871166</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1944498690314013</v>
+        <v>0.1952348288182169</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.266523860164817</v>
+        <v>0.2619530487894965</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2624966584933602</v>
+        <v>0.2642741752379166</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2738506023721969</v>
+        <v>0.2739104688926854</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2521855942129945</v>
+        <v>0.2527679502262926</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3163164959065853</v>
+        <v>0.3211628944583723</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3293782112263232</v>
+        <v>0.3325029180464782</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3231580862249771</v>
+        <v>0.3207786505297898</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.5914432208283488</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5719273030854329</v>
+        <v>0.5719273030854328</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.265094047008078</v>
@@ -1501,7 +1501,7 @@
         <v>0.3259375989635717</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3510424345268171</v>
+        <v>0.3510424345268172</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.4170122991071836</v>
@@ -1513,7 +1513,7 @@
         <v>0.4559733072969731</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4584995584266224</v>
+        <v>0.4584995584266225</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5562993758042267</v>
+        <v>0.5568156857831857</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5790483608415118</v>
+        <v>0.5788685903790795</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5754524108626299</v>
+        <v>0.5747154667170031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5532530407218632</v>
+        <v>0.5543335495637577</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.250584716469019</v>
+        <v>0.2504980378846902</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2805162357152043</v>
+        <v>0.2809282899030456</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3116874115448548</v>
+        <v>0.3099943873512903</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3372246268344511</v>
+        <v>0.3374919877677899</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4055478315858213</v>
+        <v>0.4053331424481226</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4316755964854656</v>
+        <v>0.4317134603002905</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4429497769520203</v>
+        <v>0.4434631225279622</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4466928227526829</v>
+        <v>0.4472964149662388</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5918246512217787</v>
+        <v>0.5906649294667301</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6140573637534285</v>
+        <v>0.6156986498219325</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6073207188187766</v>
+        <v>0.6095272718868915</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5895866832291577</v>
+        <v>0.5907290264778871</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2823914117513236</v>
+        <v>0.2803591574982457</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3125761117931237</v>
+        <v>0.3121300986158747</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3453417571728905</v>
+        <v>0.3415245372370889</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.365261795889093</v>
+        <v>0.3650409310517254</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4286997218869799</v>
+        <v>0.4296316355022826</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.457084041319845</v>
+        <v>0.4558499106935918</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4670735277217636</v>
+        <v>0.4699996360308565</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4703197811287134</v>
+        <v>0.4713912545529153</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>268135</v>
+        <v>268598</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>273036</v>
+        <v>271187</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>268870</v>
+        <v>270271</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>346061</v>
+        <v>345542</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>110769</v>
+        <v>111753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>130010</v>
+        <v>127584</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>137054</v>
+        <v>135576</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>218640</v>
+        <v>216411</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>389407</v>
+        <v>387114</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>414942</v>
+        <v>412863</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>415642</v>
+        <v>415577</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>577627</v>
+        <v>577040</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>311427</v>
+        <v>310883</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>314091</v>
+        <v>312783</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>309458</v>
+        <v>310849</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>392019</v>
+        <v>392539</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>146415</v>
+        <v>145292</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>166738</v>
+        <v>166567</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>174896</v>
+        <v>172840</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>256518</v>
+        <v>256514</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>446957</v>
+        <v>442670</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>469706</v>
+        <v>469532</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>471858</v>
+        <v>472370</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>641388</v>
+        <v>637024</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>204217</v>
+        <v>203985</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>233498</v>
+        <v>231017</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>218362</v>
+        <v>220067</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>251790</v>
+        <v>250710</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>134277</v>
+        <v>133745</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>123259</v>
+        <v>121667</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>173594</v>
+        <v>171715</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>193074</v>
+        <v>192078</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>349049</v>
+        <v>349809</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>369382</v>
+        <v>365602</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>401526</v>
+        <v>402717</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>454245</v>
+        <v>454487</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>244021</v>
+        <v>242358</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>277206</v>
+        <v>276031</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>257489</v>
+        <v>258701</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>298622</v>
+        <v>300006</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>173295</v>
+        <v>172641</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>161435</v>
+        <v>161748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>211525</v>
+        <v>210910</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>229072</v>
+        <v>226992</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>403574</v>
+        <v>402201</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>427879</v>
+        <v>426149</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>455700</v>
+        <v>460242</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>513669</v>
+        <v>512253</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>313399</v>
+        <v>315075</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>361484</v>
+        <v>362787</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>311209</v>
+        <v>312626</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>253578</v>
+        <v>251422</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>51148</v>
+        <v>49978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>64710</v>
+        <v>65121</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>45087</v>
+        <v>45158</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>58501</v>
+        <v>58545</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>374516</v>
+        <v>375851</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>438408</v>
+        <v>435546</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>366036</v>
+        <v>364359</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>317630</v>
+        <v>318653</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>360896</v>
+        <v>360165</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>411231</v>
+        <v>413549</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>356716</v>
+        <v>357589</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>296786</v>
+        <v>294421</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>74965</v>
+        <v>74951</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>94426</v>
+        <v>93761</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>70504</v>
+        <v>70514</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>80927</v>
+        <v>80339</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>425245</v>
+        <v>428341</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>496676</v>
+        <v>496337</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>420138</v>
+        <v>420774</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>365747</v>
+        <v>368370</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>634788</v>
+        <v>632247</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>629499</v>
+        <v>628509</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>629658</v>
+        <v>626756</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>608725</v>
+        <v>609933</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>168947</v>
+        <v>169646</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>206628</v>
+        <v>206465</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>272906</v>
+        <v>271892</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>296137</v>
+        <v>293745</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>820883</v>
+        <v>815550</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>848875</v>
+        <v>850933</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>912417</v>
+        <v>914093</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>921959</v>
+        <v>920077</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>706863</v>
+        <v>702729</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>701306</v>
+        <v>697929</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>695393</v>
+        <v>691186</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>681024</v>
+        <v>681854</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>217791</v>
+        <v>215654</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>257030</v>
+        <v>260192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>329183</v>
+        <v>328499</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>345053</v>
+        <v>346252</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>905801</v>
+        <v>912754</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>937801</v>
+        <v>940432</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1000851</v>
+        <v>1002654</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1009420</v>
+        <v>1009476</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>196415</v>
+        <v>198189</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>280073</v>
+        <v>281253</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>293177</v>
+        <v>289061</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>271041</v>
+        <v>268514</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>120514</v>
+        <v>120980</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>161080</v>
+        <v>163366</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>166927</v>
+        <v>168582</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>212691</v>
+        <v>210461</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>326406</v>
+        <v>327431</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>454221</v>
+        <v>454347</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>469918</v>
+        <v>472026</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>492535</v>
+        <v>497265</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>233490</v>
+        <v>236125</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>323446</v>
+        <v>326067</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>341249</v>
+        <v>341391</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>321537</v>
+        <v>323060</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>161763</v>
+        <v>162991</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>213133</v>
+        <v>211391</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>213708</v>
+        <v>215235</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>256797</v>
+        <v>252448</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>390286</v>
+        <v>390371</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>524676</v>
+        <v>525317</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>543569</v>
+        <v>542105</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>566223</v>
+        <v>568284</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>122194</v>
+        <v>122397</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>123313</v>
+        <v>123284</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>143997</v>
+        <v>145119</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>80503</v>
+        <v>78073</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>193302</v>
+        <v>189903</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>236003</v>
+        <v>235728</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>228069</v>
+        <v>224444</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>179413</v>
+        <v>177016</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>326800</v>
+        <v>324533</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>371765</v>
+        <v>371527</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>384122</v>
+        <v>384451</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>274351</v>
+        <v>272906</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>157216</v>
+        <v>156435</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>155967</v>
+        <v>155012</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>178563</v>
+        <v>179923</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>127627</v>
+        <v>125144</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>242821</v>
+        <v>243801</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>295411</v>
+        <v>290345</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>283766</v>
+        <v>285687</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>230652</v>
+        <v>230702</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>390121</v>
+        <v>391022</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>435020</v>
+        <v>441685</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>450285</v>
+        <v>454557</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>348843</v>
+        <v>346275</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1819205</v>
+        <v>1820893</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1981451</v>
+        <v>1980836</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1947138</v>
+        <v>1944644</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1901033</v>
+        <v>1904746</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>846506</v>
+        <v>846213</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>995316</v>
+        <v>996778</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1098719</v>
+        <v>1092751</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1223121</v>
+        <v>1224091</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2696209</v>
+        <v>2694782</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3008808</v>
+        <v>3009072</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3060221</v>
+        <v>3063767</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>3155046</v>
+        <v>3159309</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1935379</v>
+        <v>1931587</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2101249</v>
+        <v>2106865</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2054969</v>
+        <v>2062435</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2025879</v>
+        <v>2029805</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>953953</v>
+        <v>947088</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1109069</v>
+        <v>1107487</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1217353</v>
+        <v>1203897</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1324812</v>
+        <v>1324011</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>2850130</v>
+        <v>2856326</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>3185906</v>
+        <v>3177304</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>3226885</v>
+        <v>3247101</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>3321926</v>
+        <v>3329494</v>
       </c>
     </row>
     <row r="32">
